--- a/RPS Teknik Penulisan Karya Ilmiah (Scientific Writing Technique).xlsx
+++ b/RPS Teknik Penulisan Karya Ilmiah (Scientific Writing Technique).xlsx
@@ -211,9 +211,6 @@
     <t>11 - 12</t>
   </si>
   <si>
-    <t>: Teknik Penulisan Karya Ilmiah (Scientific Writing Technique)</t>
-  </si>
-  <si>
     <t>: II</t>
   </si>
   <si>
@@ -395,6 +392,9 @@
   </si>
   <si>
     <t>Mahasiswa dapat membuat karya ilmiah dangan menerapkan konsep dasar penulisan karya ilmiah dan metode penulisan.</t>
+  </si>
+  <si>
+    <t>: Teknik Penulisan Karya Ilmiah (Scientific Writing Technique) / FIK001317</t>
   </si>
 </sst>
 </file>
@@ -552,6 +552,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -578,18 +590,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,7 +923,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,95 +939,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -1054,7 +1054,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1064,7 +1064,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1100,16 +1100,16 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="B17" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1131,16 +1131,16 @@
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
+      <c r="B21" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1157,29 +1157,29 @@
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="B23" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="B24" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1196,22 +1196,22 @@
     </row>
     <row r="26" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="B26" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="11" t="s">
         <v>20</v>
       </c>
@@ -1235,10 +1235,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="10" t="s">
         <v>28</v>
       </c>
@@ -1262,172 +1262,172 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="28">
+      <c r="A30" s="20">
         <v>1</v>
       </c>
-      <c r="B30" s="28"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+      <c r="A31" s="20">
         <v>2</v>
       </c>
-      <c r="B31" s="28"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
+      <c r="A32" s="20">
         <v>3</v>
       </c>
-      <c r="B32" s="28"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I32" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
+      <c r="A33" s="20">
         <v>4</v>
       </c>
-      <c r="B33" s="28"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
+      <c r="A34" s="20">
         <v>5</v>
       </c>
-      <c r="B34" s="28"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I34" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="28">
+      <c r="A35" s="20">
         <v>6</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="I35" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
+      <c r="A36" s="20">
         <v>7</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12" t="s">
@@ -1438,206 +1438,206 @@
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
+      <c r="A37" s="20">
         <v>8</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G37" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="I37" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A38" s="28">
+      <c r="A38" s="20">
         <v>9</v>
       </c>
-      <c r="B38" s="28"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G38" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="28">
+      <c r="A39" s="20">
         <v>10</v>
       </c>
-      <c r="B39" s="28"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="28"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G40" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A41" s="28">
+      <c r="A41" s="20">
         <v>13</v>
       </c>
-      <c r="B41" s="28"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I41" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="28">
+      <c r="A42" s="20">
         <v>14</v>
       </c>
-      <c r="B42" s="28"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G42" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="28">
+      <c r="A43" s="20">
         <v>15</v>
       </c>
-      <c r="B43" s="28"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H43" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="I43" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="28">
+      <c r="A44" s="20">
         <v>16</v>
       </c>
-      <c r="B44" s="28"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
@@ -1799,7 +1799,7 @@
         <v>45</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I57" s="15"/>
       <c r="L57" s="15"/>
@@ -1823,11 +1823,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -1840,18 +1847,11 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/RPS Teknik Penulisan Karya Ilmiah (Scientific Writing Technique).xlsx
+++ b/RPS Teknik Penulisan Karya Ilmiah (Scientific Writing Technique).xlsx
@@ -552,44 +552,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,95 +939,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -1100,16 +1100,16 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1131,16 +1131,16 @@
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1157,29 +1157,29 @@
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1196,22 +1196,22 @@
     </row>
     <row r="26" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="11" t="s">
         <v>20</v>
       </c>
@@ -1235,10 +1235,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="22"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="10" t="s">
         <v>28</v>
       </c>
@@ -1262,10 +1262,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="A30" s="28">
         <v>1</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="8" t="s">
         <v>51</v>
       </c>
@@ -1289,10 +1289,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="28">
         <v>2</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="8" t="s">
         <v>92</v>
       </c>
@@ -1316,10 +1316,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+      <c r="A32" s="28">
         <v>3</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="8" t="s">
         <v>54</v>
       </c>
@@ -1343,10 +1343,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+      <c r="A33" s="28">
         <v>4</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="8" t="s">
         <v>58</v>
       </c>
@@ -1370,10 +1370,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+      <c r="A34" s="28">
         <v>5</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="8" t="s">
         <v>62</v>
       </c>
@@ -1397,10 +1397,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
+      <c r="A35" s="28">
         <v>6</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="8" t="s">
         <v>65</v>
       </c>
@@ -1424,10 +1424,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+      <c r="A36" s="28">
         <v>7</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12" t="s">
@@ -1445,10 +1445,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+      <c r="A37" s="28">
         <v>8</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="8" t="s">
         <v>65</v>
       </c>
@@ -1472,10 +1472,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
+      <c r="A38" s="28">
         <v>9</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="8" t="s">
         <v>82</v>
       </c>
@@ -1499,10 +1499,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
+      <c r="A39" s="28">
         <v>10</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
@@ -1526,10 +1526,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="8" t="s">
         <v>96</v>
       </c>
@@ -1553,10 +1553,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
+      <c r="A41" s="28">
         <v>13</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="8" t="s">
         <v>87</v>
       </c>
@@ -1580,10 +1580,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
+      <c r="A42" s="28">
         <v>14</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="8" t="s">
         <v>86</v>
       </c>
@@ -1607,10 +1607,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
+      <c r="A43" s="28">
         <v>15</v>
       </c>
-      <c r="B43" s="20"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="8" t="s">
         <v>91</v>
       </c>
@@ -1634,10 +1634,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+      <c r="A44" s="28">
         <v>16</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
@@ -1823,6 +1823,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -1835,23 +1852,6 @@
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="B24:I24"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
